--- a/data/trans_dic/LAWTONB_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 41,57</t>
+          <t>12,39; 40,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 36,85</t>
+          <t>12,23; 35,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,95; 68,15</t>
+          <t>36,46; 66,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 36,23</t>
+          <t>15,75; 37,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 49,89</t>
+          <t>29,14; 50,38</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 36,59</t>
+          <t>14,6; 37,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 42,66</t>
+          <t>19,29; 42,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 24,31</t>
+          <t>9,08; 24,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 32,94</t>
+          <t>15,72; 32,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,05; 53,59</t>
+          <t>33,38; 53,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,49; 44,73</t>
+          <t>24,65; 43,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,62; 30,86</t>
+          <t>17,01; 30,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,89; 45,58</t>
+          <t>30,31; 45,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 32,44</t>
+          <t>20,48; 33,06</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 31,68</t>
+          <t>11,09; 32,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 40,1</t>
+          <t>14,85; 39,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 33,08</t>
+          <t>13,62; 33,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,27 +925,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,11; 44,67</t>
+          <t>23,72; 44,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 33,23</t>
+          <t>12,53; 32,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,07; 42,52</t>
+          <t>26,65; 43,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,63; 38,85</t>
+          <t>22,62; 38,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 31,11</t>
+          <t>15,79; 30,7</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 39,77</t>
+          <t>17,72; 39,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 41,92</t>
+          <t>24,15; 41,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 34,73</t>
+          <t>14,52; 34,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,54; 54,82</t>
+          <t>33,22; 55,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,77; 61,82</t>
+          <t>43,24; 61,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,89; 44,06</t>
+          <t>22,45; 44,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 46,03</t>
+          <t>29,28; 45,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,11; 50,47</t>
+          <t>36,66; 49,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 36,64</t>
+          <t>21,76; 36,65</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 47,5</t>
+          <t>17,15; 47,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 47,57</t>
+          <t>13,86; 46,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 22,47</t>
+          <t>4,04; 22,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,49; 54,07</t>
+          <t>24,38; 55,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,78; 63,31</t>
+          <t>33,68; 62,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,24; 46,67</t>
+          <t>24,13; 46,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,99; 53,48</t>
+          <t>30,95; 53,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,5; 41,56</t>
+          <t>22,62; 41,81</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1235,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,35; 51,01</t>
+          <t>25,48; 52,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,76; 49,3</t>
+          <t>22,85; 48,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,32; 42,51</t>
+          <t>20,04; 42,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,22 +1260,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,44; 48,21</t>
+          <t>23,47; 48,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,23; 47,96</t>
+          <t>30,1; 48,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,69; 41,04</t>
+          <t>24,74; 41,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,58; 42,75</t>
+          <t>25,33; 43,08</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,43; 26,3</t>
+          <t>12,13; 27,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,59; 36,14</t>
+          <t>17,58; 36,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 33,1</t>
+          <t>16,56; 33,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,16; 42,69</t>
+          <t>25,09; 42,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,28; 42,78</t>
+          <t>25,49; 43,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,93; 49,99</t>
+          <t>32,59; 50,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,58; 32,78</t>
+          <t>20,89; 32,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,03; 37,53</t>
+          <t>24,8; 37,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,02; 40,58</t>
+          <t>28,56; 40,96</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 40,2</t>
+          <t>24,26; 41,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,82; 26,32</t>
+          <t>10,7; 26,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,84; 25,94</t>
+          <t>12,43; 25,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,71; 39,31</t>
+          <t>24,04; 39,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 38,38</t>
+          <t>23,34; 37,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,99; 40,3</t>
+          <t>24,58; 40,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,73; 38,25</t>
+          <t>26,0; 37,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,41; 30,14</t>
+          <t>19,68; 30,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,6; 31,87</t>
+          <t>20,78; 32,01</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>23,12; 30,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,12; 31,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>18,0; 24,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,77; 38,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>34,77; 42,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>32,24; 39,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,16; 33,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,69; 36,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>26,79; 32,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 40,73</t>
+          <t>12,37; 40,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 35,89</t>
+          <t>12,5; 36,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 42,49</t>
+          <t>12,47; 42,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,46; 66,07</t>
+          <t>36,15; 67,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 37,04</t>
+          <t>15,84; 36,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,14; 50,38</t>
+          <t>29,09; 50,95</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 37,32</t>
+          <t>14,73; 36,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,29; 42,29</t>
+          <t>18,49; 42,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 24,03</t>
+          <t>8,98; 23,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 32,62</t>
+          <t>15,03; 32,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,38; 53,13</t>
+          <t>31,3; 52,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,65; 43,86</t>
+          <t>24,8; 44,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 30,45</t>
+          <t>17,4; 30,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,31; 45,43</t>
+          <t>29,34; 44,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 33,06</t>
+          <t>19,82; 32,73</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 32,03</t>
+          <t>11,3; 33,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 39,49</t>
+          <t>14,98; 40,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 33,55</t>
+          <t>13,9; 33,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,9; 53,71</t>
+          <t>31,92; 53,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,72; 44,38</t>
+          <t>23,01; 43,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 32,61</t>
+          <t>12,79; 33,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 43,41</t>
+          <t>26,45; 42,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,62; 38,96</t>
+          <t>22,6; 39,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 30,7</t>
+          <t>16,23; 31,07</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 39,99</t>
+          <t>17,35; 40,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 41,52</t>
+          <t>23,91; 41,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 34,15</t>
+          <t>15,34; 34,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,22; 55,5</t>
+          <t>33,29; 54,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,24; 61,31</t>
+          <t>43,77; 61,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,45; 44,05</t>
+          <t>21,32; 43,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 45,5</t>
+          <t>29,01; 45,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,66; 49,6</t>
+          <t>37,15; 50,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 36,65</t>
+          <t>21,07; 35,54</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 47,67</t>
+          <t>15,45; 46,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 46,95</t>
+          <t>13,99; 46,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 22,72</t>
+          <t>3,95; 22,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,38; 55,58</t>
+          <t>25,03; 54,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,9; 63,98</t>
+          <t>34,69; 65,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 62,67</t>
+          <t>33,25; 61,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,13; 46,24</t>
+          <t>24,0; 46,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,95; 53,74</t>
+          <t>29,9; 52,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 41,81</t>
+          <t>22,69; 41,75</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,48; 52,33</t>
+          <t>23,91; 51,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 48,99</t>
+          <t>22,76; 49,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 42,5</t>
+          <t>19,01; 42,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,82; 51,67</t>
+          <t>28,72; 52,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,88; 41,26</t>
+          <t>19,72; 40,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,47; 48,43</t>
+          <t>22,29; 49,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,1; 48,6</t>
+          <t>30,27; 47,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 41,06</t>
+          <t>24,2; 40,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,33; 43,08</t>
+          <t>24,16; 41,91</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,13; 27,56</t>
+          <t>12,49; 27,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,58; 36,19</t>
+          <t>17,62; 35,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,56; 33,13</t>
+          <t>16,58; 33,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,09; 42,48</t>
+          <t>24,99; 42,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,49; 43,19</t>
+          <t>26,57; 43,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,59; 50,35</t>
+          <t>33,09; 50,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,89; 32,69</t>
+          <t>21,24; 32,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,8; 37,42</t>
+          <t>24,95; 37,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,56; 40,96</t>
+          <t>28,2; 40,18</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,26; 41,1</t>
+          <t>23,99; 40,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 26,45</t>
+          <t>10,8; 26,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 25,31</t>
+          <t>12,1; 25,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,04; 39,7</t>
+          <t>24,24; 40,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,34; 37,87</t>
+          <t>23,2; 38,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,58; 40,72</t>
+          <t>25,52; 40,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,0; 37,51</t>
+          <t>26,22; 38,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,68; 30,2</t>
+          <t>19,98; 30,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,78; 32,01</t>
+          <t>21,13; 31,62</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,51</t>
+          <t>22,54; 30,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,07</t>
+          <t>22,73; 31,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,0; 24,0</t>
+          <t>18,09; 24,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,77; 38,03</t>
+          <t>30,8; 38,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,77; 42,27</t>
+          <t>34,75; 42,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,24; 39,48</t>
+          <t>31,88; 39,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,16; 33,79</t>
+          <t>28,33; 33,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,69; 36,03</t>
+          <t>30,86; 36,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,79; 32,06</t>
+          <t>27,05; 32,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 40,91</t>
+          <t>12,71; 41,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 36,83</t>
+          <t>11,88; 36,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 42,83</t>
+          <t>12,8; 42,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,15; 67,52</t>
+          <t>37,95; 68,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,84; 36,56</t>
+          <t>16,83; 36,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 50,95</t>
+          <t>29,02; 49,89</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,73; 36,59</t>
+          <t>14,78; 36,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,49; 42,4</t>
+          <t>18,39; 42,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 23,34</t>
+          <t>9,37; 24,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 32,41</t>
+          <t>15,58; 32,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,3; 52,11</t>
+          <t>33,05; 53,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,8; 44,52</t>
+          <t>24,49; 44,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 30,86</t>
+          <t>17,62; 30,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 44,57</t>
+          <t>29,89; 45,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,82; 32,73</t>
+          <t>19,88; 32,44</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 33,83</t>
+          <t>10,98; 31,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 40,58</t>
+          <t>15,08; 40,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 33,69</t>
+          <t>14,88; 33,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,92; 53,24</t>
+          <t>32,9; 53,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,01; 43,6</t>
+          <t>23,11; 44,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 33,81</t>
+          <t>13,3; 33,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,45; 42,76</t>
+          <t>27,07; 42,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,6; 39,08</t>
+          <t>22,63; 38,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 31,07</t>
+          <t>15,77; 31,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 40,59</t>
+          <t>17,08; 39,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 41,99</t>
+          <t>23,45; 41,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 34,33</t>
+          <t>15,15; 34,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,29; 54,1</t>
+          <t>32,54; 54,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,77; 61,06</t>
+          <t>44,77; 61,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 43,14</t>
+          <t>21,89; 44,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 45,9</t>
+          <t>29,57; 46,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,15; 50,15</t>
+          <t>37,11; 50,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,07; 35,54</t>
+          <t>21,31; 36,64</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,45; 46,91</t>
+          <t>17,26; 47,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 46,99</t>
+          <t>13,81; 47,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 22,41</t>
+          <t>5,49; 22,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,03; 54,73</t>
+          <t>23,49; 54,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,69; 65,06</t>
+          <t>35,9; 63,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,25; 61,37</t>
+          <t>32,78; 63,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,0; 46,3</t>
+          <t>23,24; 46,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,9; 52,87</t>
+          <t>30,99; 53,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,69; 41,75</t>
+          <t>21,5; 41,56</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,91; 51,85</t>
+          <t>23,35; 51,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,76; 49,22</t>
+          <t>22,76; 49,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,01; 42,78</t>
+          <t>20,32; 42,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,72; 52,1</t>
+          <t>27,82; 51,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,72; 40,91</t>
+          <t>19,88; 41,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,29; 49,76</t>
+          <t>22,44; 48,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,27; 47,94</t>
+          <t>30,23; 47,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,2; 40,55</t>
+          <t>24,69; 41,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 41,91</t>
+          <t>24,58; 42,75</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 27,15</t>
+          <t>12,43; 26,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,62; 35,91</t>
+          <t>18,59; 36,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,58; 33,06</t>
+          <t>17,71; 33,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,99; 42,53</t>
+          <t>25,16; 42,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,57; 43,09</t>
+          <t>26,28; 42,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,09; 50,59</t>
+          <t>32,93; 49,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,24; 32,44</t>
+          <t>20,58; 32,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,95; 37,32</t>
+          <t>25,03; 37,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,2; 40,18</t>
+          <t>28,02; 40,58</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,99; 40,84</t>
+          <t>23,32; 40,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 26,28</t>
+          <t>10,82; 26,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,1; 25,51</t>
+          <t>12,84; 25,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,24; 40,49</t>
+          <t>24,71; 39,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,2; 38,35</t>
+          <t>23,32; 38,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,52; 40,7</t>
+          <t>24,99; 40,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,22; 38,15</t>
+          <t>26,73; 38,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,98; 30,28</t>
+          <t>19,41; 30,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,13; 31,62</t>
+          <t>20,6; 31,87</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,2</t>
+          <t>22,74; 30,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,12</t>
+          <t>22,85; 30,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,64</t>
+          <t>17,9; 24,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,09</t>
+          <t>30,92; 38,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,0</t>
+          <t>34,82; 42,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,88; 39,81</t>
+          <t>31,89; 39,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,33; 33,64</t>
+          <t>28,38; 33,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,86; 36,22</t>
+          <t>30,78; 36,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27,05; 32,03</t>
+          <t>26,61; 31,63</t>
         </is>
       </c>
     </row>
